--- a/fault/media/example/Saadat10.8.xlsx
+++ b/fault/media/example/Saadat10.8.xlsx
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
